--- a/MyAssistant/bin/Debug/netcoreapp3.1/DHTable.xlsx
+++ b/MyAssistant/bin/Debug/netcoreapp3.1/DHTable.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="油井" sheetId="2" r:id="rId2"/>
+    <sheet name="水井" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="301">
   <si>
     <t>表名</t>
   </si>
@@ -427,6 +427,509 @@
   </si>
   <si>
     <t>iot_data_oilwell_DH_measure_latest</t>
+  </si>
+  <si>
+    <t>类名</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>OilWellReportData</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>wellId</t>
+  </si>
+  <si>
+    <t>wellName</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>井名</t>
+  </si>
+  <si>
+    <t>wellType</t>
+  </si>
+  <si>
+    <t>井别</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>横坐标</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>纵坐标</t>
+  </si>
+  <si>
+    <t>heightLevel</t>
+  </si>
+  <si>
+    <t>海拔（m）</t>
+  </si>
+  <si>
+    <t>wellBottom</t>
+  </si>
+  <si>
+    <t>人工井底（m）</t>
+  </si>
+  <si>
+    <t>startupTime</t>
+  </si>
+  <si>
+    <t>投产时间</t>
+  </si>
+  <si>
+    <t>startupWay</t>
+  </si>
+  <si>
+    <t>投产方式</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>层位</t>
+  </si>
+  <si>
+    <t>proDate</t>
+  </si>
+  <si>
+    <t>生产日期</t>
+  </si>
+  <si>
+    <t>wellStartStatus</t>
+  </si>
+  <si>
+    <t>目前开井状态</t>
+  </si>
+  <si>
+    <t>wellClosedReason</t>
+  </si>
+  <si>
+    <t>关井原因</t>
+  </si>
+  <si>
+    <t>displayment</t>
+  </si>
+  <si>
+    <t>冲程</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>冲次</t>
+  </si>
+  <si>
+    <t>pumpSetting</t>
+  </si>
+  <si>
+    <t>泵挂（m）</t>
+  </si>
+  <si>
+    <t>pumpDiameter</t>
+  </si>
+  <si>
+    <t>泵径（mm）</t>
+  </si>
+  <si>
+    <t>wellHeadPressure</t>
+  </si>
+  <si>
+    <t>井口流压（Mpa）</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>平衡度（%）</t>
+  </si>
+  <si>
+    <t>avgCurrent</t>
+  </si>
+  <si>
+    <t>平均电流（A）</t>
+  </si>
+  <si>
+    <t>avgLoad</t>
+  </si>
+  <si>
+    <t>平均载荷（KN）</t>
+  </si>
+  <si>
+    <t>avgPower</t>
+  </si>
+  <si>
+    <t>平均功率（Kw）</t>
+  </si>
+  <si>
+    <t>startedHours</t>
+  </si>
+  <si>
+    <t>开井时长（h）</t>
+  </si>
+  <si>
+    <t>dayPowerConsumption</t>
+  </si>
+  <si>
+    <t>日耗电量（Kw·h）</t>
+  </si>
+  <si>
+    <t>workHours</t>
+  </si>
+  <si>
+    <t>生产时间（h）</t>
+  </si>
+  <si>
+    <t>fluidProduction</t>
+  </si>
+  <si>
+    <t>产液（m³）</t>
+  </si>
+  <si>
+    <t>waterContent</t>
+  </si>
+  <si>
+    <t>含水（%）</t>
+  </si>
+  <si>
+    <t>oilProduction</t>
+  </si>
+  <si>
+    <t>产油（t）</t>
+  </si>
+  <si>
+    <t>oilChangProduction</t>
+  </si>
+  <si>
+    <t>日产油增减产油（t）</t>
+  </si>
+  <si>
+    <t>todayInventory</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>今日库存液</t>
+  </si>
+  <si>
+    <t>yesterdayLeftOil</t>
+  </si>
+  <si>
+    <t>昨日余液</t>
+  </si>
+  <si>
+    <t>todaySendOil</t>
+  </si>
+  <si>
+    <t>今日发油</t>
+  </si>
+  <si>
+    <t>handleWater</t>
+  </si>
+  <si>
+    <t>排明水</t>
+  </si>
+  <si>
+    <t>ohterOil</t>
+  </si>
+  <si>
+    <t>其它用油</t>
+  </si>
+  <si>
+    <t>casingPressure</t>
+  </si>
+  <si>
+    <t>套压</t>
+  </si>
+  <si>
+    <t>oilPressure</t>
+  </si>
+  <si>
+    <t>油压</t>
+  </si>
+  <si>
+    <t>backPressure</t>
+  </si>
+  <si>
+    <t>回压</t>
+  </si>
+  <si>
+    <t>remarkCode</t>
+  </si>
+  <si>
+    <t>备注代码</t>
+  </si>
+  <si>
+    <t>remarkCode1</t>
+  </si>
+  <si>
+    <t>备注代码1</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>WaterWellReportData</t>
+  </si>
+  <si>
+    <t>投（转）注时间</t>
+  </si>
+  <si>
+    <t>投（转）注方式</t>
+  </si>
+  <si>
+    <t>injectionLevel</t>
+  </si>
+  <si>
+    <t>注水层位</t>
+  </si>
+  <si>
+    <t>injectionLayer</t>
+  </si>
+  <si>
+    <t>注水层段</t>
+  </si>
+  <si>
+    <t>injectionWay</t>
+  </si>
+  <si>
+    <t>注水方式</t>
+  </si>
+  <si>
+    <t>waterSourceType</t>
+  </si>
+  <si>
+    <t>水源类型</t>
+  </si>
+  <si>
+    <t>injectionDate</t>
+  </si>
+  <si>
+    <t>注入日期</t>
+  </si>
+  <si>
+    <t>injectionHours</t>
+  </si>
+  <si>
+    <t>日注入时间</t>
+  </si>
+  <si>
+    <t>pumpPressure</t>
+  </si>
+  <si>
+    <t>泵压</t>
+  </si>
+  <si>
+    <t>stationPressure</t>
+  </si>
+  <si>
+    <t>配水间压力</t>
+  </si>
+  <si>
+    <t>井口压力</t>
+  </si>
+  <si>
+    <t>layerNature</t>
+  </si>
+  <si>
+    <t>层段性质</t>
+  </si>
+  <si>
+    <t>injectionNature</t>
+  </si>
+  <si>
+    <t>注水性质</t>
+  </si>
+  <si>
+    <t>mainPressure</t>
+  </si>
+  <si>
+    <t>干线压力</t>
+  </si>
+  <si>
+    <t>wellHeadIron</t>
+  </si>
+  <si>
+    <t>井口含铁</t>
+  </si>
+  <si>
+    <t>wellHeadTemperature</t>
+  </si>
+  <si>
+    <t>井口温度</t>
+  </si>
+  <si>
+    <t>wellHeadImpurity</t>
+  </si>
+  <si>
+    <t>井口杂质</t>
+  </si>
+  <si>
+    <t>overflows</t>
+  </si>
+  <si>
+    <t>溢流量</t>
+  </si>
+  <si>
+    <t>level1</t>
+  </si>
+  <si>
+    <t>层位1</t>
+  </si>
+  <si>
+    <t>injectionAllocation1</t>
+  </si>
+  <si>
+    <t>配注(m3/d)</t>
+  </si>
+  <si>
+    <t>injectionReal1</t>
+  </si>
+  <si>
+    <t>实注(m3/d)</t>
+  </si>
+  <si>
+    <t>injectionMonth1</t>
+  </si>
+  <si>
+    <t>月累计注水量（m3）</t>
+  </si>
+  <si>
+    <t>injectionYear1</t>
+  </si>
+  <si>
+    <t>年累计注水量（m3）</t>
+  </si>
+  <si>
+    <t>injectionAll1</t>
+  </si>
+  <si>
+    <t>累计注水量（m3）</t>
+  </si>
+  <si>
+    <t>injectionMonthlack1</t>
+  </si>
+  <si>
+    <t>月累计任务超欠（m3）</t>
+  </si>
+  <si>
+    <t>suckWaterPer1</t>
+  </si>
+  <si>
+    <t>层段吸水百分数</t>
+  </si>
+  <si>
+    <t>level2</t>
+  </si>
+  <si>
+    <t>层位2</t>
+  </si>
+  <si>
+    <t>injectionAllocation2</t>
+  </si>
+  <si>
+    <t>injectionReal2</t>
+  </si>
+  <si>
+    <t>injectionMonth2</t>
+  </si>
+  <si>
+    <t>injectionYear2</t>
+  </si>
+  <si>
+    <t>injectionAll2</t>
+  </si>
+  <si>
+    <t>injectionMonthlack2</t>
+  </si>
+  <si>
+    <t>suckWaterPer2</t>
+  </si>
+  <si>
+    <t>level3</t>
+  </si>
+  <si>
+    <r>
+      <t>层位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB8BFC6"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>injectionAllocation3</t>
+  </si>
+  <si>
+    <t>injectionReal3</t>
+  </si>
+  <si>
+    <t>injectionMonth3</t>
+  </si>
+  <si>
+    <t>injectionYear3</t>
+  </si>
+  <si>
+    <t>injectionAll3</t>
+  </si>
+  <si>
+    <t>injectionMonthlack3</t>
+  </si>
+  <si>
+    <t>suckWaterPer3</t>
+  </si>
+  <si>
+    <t>injectionAllocation</t>
+  </si>
+  <si>
+    <t>injectionReal</t>
+  </si>
+  <si>
+    <t>injectionMonth</t>
+  </si>
+  <si>
+    <t>injectionYear</t>
+  </si>
+  <si>
+    <t>injectionAll</t>
+  </si>
+  <si>
+    <t>injectionMonthlack</t>
+  </si>
+  <si>
+    <t>levelIndex</t>
+  </si>
+  <si>
+    <t>层段序号</t>
+  </si>
+  <si>
+    <t>sring</t>
   </si>
 </sst>
 </file>
@@ -434,18 +937,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFDEDEDE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFDEDEDE"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB8BFC6"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB8BFC6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -455,64 +984,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,21 +1022,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,23 +1098,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,15 +1134,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,7 +1144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF363B40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +1174,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,19 +1240,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +1276,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,132 +1330,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -808,13 +1350,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color rgb="FF474D54"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF474D54"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF474D54"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF474D54"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF474D54"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF474D54"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF474D54"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,8 +1396,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,24 +1434,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,23 +1470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,10 +1483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,144 +1495,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,18 +2001,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="35.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="15.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="16.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1620,58 +2208,58 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:4">
-      <c r="B18" s="1" t="s">
+    <row r="18" s="6" customFormat="1" spans="2:4">
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:4">
-      <c r="B19" s="1" t="s">
+    <row r="19" s="6" customFormat="1" spans="2:4">
+      <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:4">
-      <c r="B20" s="1" t="s">
+    <row r="20" s="6" customFormat="1" spans="2:4">
+      <c r="B20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:4">
-      <c r="B21" s="1" t="s">
+    <row r="21" s="6" customFormat="1" spans="2:4">
+      <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:4">
-      <c r="B22" s="1" t="s">
+    <row r="22" s="6" customFormat="1" spans="2:4">
+      <c r="B22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1796,36 +2384,36 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="2:4">
-      <c r="B34" s="1" t="s">
+    <row r="34" s="6" customFormat="1" spans="2:4">
+      <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="2:4">
-      <c r="B35" s="1" t="s">
+    <row r="35" s="6" customFormat="1" ht="18" customHeight="1" spans="2:4">
+      <c r="B35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="21" customHeight="1" spans="2:4">
-      <c r="B36" s="1" t="s">
+    <row r="36" s="6" customFormat="1" ht="21" customHeight="1" spans="2:4">
+      <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1873,80 +2461,80 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:4">
-      <c r="B41" s="1" t="s">
+    <row r="41" s="6" customFormat="1" spans="2:4">
+      <c r="B41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="2:4">
-      <c r="B42" s="2" t="s">
+    <row r="42" s="7" customFormat="1" spans="2:4">
+      <c r="B42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="2:4">
-      <c r="B43" s="2" t="s">
+    <row r="43" s="7" customFormat="1" spans="2:4">
+      <c r="B43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:4">
-      <c r="B44" s="1" t="s">
+    <row r="44" s="6" customFormat="1" spans="2:4">
+      <c r="B44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:4">
-      <c r="B45" s="1" t="s">
+    <row r="45" s="6" customFormat="1" spans="2:4">
+      <c r="B45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:4">
-      <c r="B46" s="1" t="s">
+    <row r="46" s="6" customFormat="1" spans="2:4">
+      <c r="B46" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:4">
-      <c r="B47" s="1" t="s">
+    <row r="47" s="6" customFormat="1" spans="2:4">
+      <c r="B47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1994,7 +2582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" ht="15.6" spans="2:7">
       <c r="B52" t="s">
         <v>109</v>
       </c>
@@ -2004,6 +2592,7 @@
       <c r="D52" t="s">
         <v>110</v>
       </c>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
@@ -2141,14 +2730,489 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="36.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="30.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="33.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.35" spans="1:4">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="2:4">
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="2:4">
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="2:4">
+      <c r="B5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="2:4">
+      <c r="B6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="2:4">
+      <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="2:4">
+      <c r="B8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="2:4">
+      <c r="B13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="2:4">
+      <c r="B19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="2:4">
+      <c r="B20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="2:4">
+      <c r="B21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="2:4">
+      <c r="B24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="2:4">
+      <c r="B26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="2:4">
+      <c r="B27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="2:4">
+      <c r="B28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="2:4">
+      <c r="B29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="2:4">
+      <c r="B30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="2:4">
+      <c r="B31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="2:4">
+      <c r="B32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="2:4">
+      <c r="B33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="2:4">
+      <c r="B34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="2:4">
+      <c r="B35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="2:4">
+      <c r="B36" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="2:4">
+      <c r="B37" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" spans="2:4">
+      <c r="B38" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="2:4">
+      <c r="B39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="2:4">
+      <c r="B41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="2:4">
+      <c r="B42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2158,14 +3222,708 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.7777777777778" customWidth="1"/>
+    <col min="2" max="3" width="22.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="22.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.35" spans="1:4">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="2:4">
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="2:4">
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="2:4">
+      <c r="B5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="2:4">
+      <c r="B6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="2:4">
+      <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="2:4">
+      <c r="B8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="2:4">
+      <c r="B13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="2:4">
+      <c r="B19" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="2:4">
+      <c r="B20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="2:4">
+      <c r="B21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="2:4">
+      <c r="B24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="2:4">
+      <c r="B26" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="2:4">
+      <c r="B27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="2:4">
+      <c r="B28" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="2:4">
+      <c r="B29" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="2:4">
+      <c r="B30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="2:4">
+      <c r="B31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="2:4">
+      <c r="B32" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="2:4">
+      <c r="B33" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="2:4">
+      <c r="B34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="2:4">
+      <c r="B35" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="2:4">
+      <c r="B36" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="2:4">
+      <c r="B37" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" spans="2:4">
+      <c r="B38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="2:4">
+      <c r="B39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="2:4">
+      <c r="B41" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="2:4">
+      <c r="B42" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="2:4">
+      <c r="B43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" spans="2:4">
+      <c r="B44" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" spans="2:4">
+      <c r="B45" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" ht="16.35" spans="2:4">
+      <c r="B46" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" spans="2:4">
+      <c r="B47" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" spans="2:4">
+      <c r="B48" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="2:4">
+      <c r="B49" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" spans="2:4">
+      <c r="B51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" spans="2:4">
+      <c r="B52" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="2:4">
+      <c r="B53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="2:4">
+      <c r="B54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="2:4">
+      <c r="B55" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" spans="2:4">
+      <c r="B56" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="2:4">
+      <c r="B57" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="2:4">
+      <c r="B58" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="2:4">
+      <c r="B59" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" spans="2:4">
+      <c r="B60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" spans="2:4">
+      <c r="B61" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="2:4">
+      <c r="B62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
